--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,64 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +750,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +788,17 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +826,17 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +848,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
-        <v>6700</v>
-      </c>
       <c r="F12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +918,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +956,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +994,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,37 +1013,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,28 +1063,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-7800</v>
+        <v>-12000</v>
       </c>
       <c r="F18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1105,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,62 +1117,80 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-13100</v>
       </c>
       <c r="F21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-7700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1079,52 +1198,70 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1289,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1327,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1441,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1479,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1517,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1555,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,57 +1573,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1669,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1772,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1788,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>130100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>52300</v>
+      </c>
+      <c r="G41" s="3">
         <v>61000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1820,17 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1858,17 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1896,17 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,23 +1934,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1972,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>133000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>56700</v>
+      </c>
+      <c r="G46" s="3">
         <v>61900</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +2010,17 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,23 +2048,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +2086,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2124,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2162,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,22 +2200,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2238,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2276,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>133600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>57300</v>
+      </c>
+      <c r="G54" s="3">
         <v>62200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2314,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2336,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,22 +2352,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,8 +2384,17 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,22 +2422,31 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2460,31 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5700</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2498,17 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,22 +2536,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2574,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2612,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2650,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2688,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2726,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2748,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2780,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,22 +2818,31 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>118200</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>235100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2353,8 +2856,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2894,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-71200</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-99900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-14900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2932,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2970,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +3008,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +3046,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-61900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>113400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>124200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-178800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +3084,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +3122,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3225,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3295,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3333,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3371,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3409,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3447,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-9800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-8200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3507,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3577,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3615,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3675,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3707,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3745,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3783,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,91 +3821,127 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>56400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>41900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-7600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>77800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>65700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>53300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>24400</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,55 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +723,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E12" s="3">
         <v>9100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J12" s="3">
         <v>11100</v>
       </c>
-      <c r="I12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1082,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,26 +1094,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,26 +1152,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>1600</v>
-      </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>10400</v>
       </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>900</v>
       </c>
       <c r="J20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,26 +1193,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-8700</v>
-      </c>
       <c r="H21" s="3">
-        <v>-12500</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-3100</v>
+        <v>-3500</v>
       </c>
       <c r="J21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,23 +1236,23 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1222,35 +1263,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-12500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-3100</v>
+        <v>-3500</v>
       </c>
       <c r="J23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,31 +1304,34 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+        <v>-8700</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1298,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-12500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-12500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,26 +1644,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-10400</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>-900</v>
       </c>
       <c r="J32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-12500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-12500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E41" s="3">
         <v>122500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>130100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,26 +2040,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E46" s="3">
         <v>124600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>56700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,8 +2163,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2066,17 +2175,17 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,8 +2347,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E54" s="3">
         <v>125100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,26 +2566,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2554,17 +2701,17 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,14 +3008,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>118200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>235100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E76" s="3">
         <v>113400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>124200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-70800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-178800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-12500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3254,8 +3454,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10500</v>
       </c>
-      <c r="F89" s="3">
-        <v>-6400</v>
-      </c>
       <c r="G89" s="3">
-        <v>-9800</v>
+        <v>-7000</v>
       </c>
       <c r="H89" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3530,14 +3752,14 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3650,8 +3881,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,34 +4074,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>87000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J100" s="3">
         <v>56400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3877,26 +4127,26 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G101" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>65700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>41900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3906,35 +4156,38 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>77800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-79000</v>
-      </c>
       <c r="G102" s="3">
-        <v>65700</v>
+        <v>-74300</v>
       </c>
       <c r="H102" s="3">
-        <v>53300</v>
+        <v>61000</v>
       </c>
       <c r="I102" s="3">
-        <v>-36400</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K102" s="3">
         <v>24400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +727,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +879,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E12" s="3">
         <v>10700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E17" s="3">
         <v>14500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1112,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,29 +1124,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,29 +1186,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,29 +1230,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,23 +1279,23 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>8700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1266,38 +1306,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1350,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1324,18 +1370,18 @@
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>-8700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-7800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1438,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1482,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,29 +1714,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1746,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1834,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E41" s="3">
         <v>112900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E46" s="3">
         <v>114300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>124600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>56700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2350,8 +2470,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E54" s="3">
         <v>114800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E60" s="3">
         <v>14500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
       <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E66" s="3">
         <v>14700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,14 +3179,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>118200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>235100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-116300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-90500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E76" s="3">
         <v>100100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>124200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-70800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-178800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3562,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3457,8 +3656,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
-        <v>-10500</v>
-      </c>
       <c r="G89" s="3">
-        <v>-7000</v>
+        <v>-14700</v>
       </c>
       <c r="H89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-9200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3752,17 +3973,17 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3884,8 +4114,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,37 +4320,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>87000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4118,38 +4364,41 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-68400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>65700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4159,38 +4408,41 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>77800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-74300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>77700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,8 +730,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,41 +892,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>8800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,32 +1153,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,32 +1219,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,32 +1266,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1282,23 +1321,23 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>8700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1309,41 +1348,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1373,18 +1418,18 @@
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>-8700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-7800</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1397,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,32 +1783,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E41" s="3">
         <v>101100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,32 +2237,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E46" s="3">
         <v>102400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>114300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>124600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>56700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,8 +2378,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2283,23 +2390,23 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,8 +2592,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E54" s="3">
         <v>102800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>114800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,32 +2839,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E60" s="3">
         <v>13700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2847,23 +2992,23 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
       <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E66" s="3">
         <v>13800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,14 +3349,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>118200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>235100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-128600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-90500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E76" s="3">
         <v>89000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>113400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>124200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-70800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-178800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3659,8 +3857,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3976,17 +4196,17 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4311,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4117,8 +4346,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4129,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4565,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4332,31 +4577,31 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>87000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4367,41 +4612,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-68400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>65700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4411,41 +4659,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>77800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-74300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>77700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,8 +734,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +784,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,44 +906,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1171,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,35 +1183,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,35 +1253,35 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1291,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,35 +1303,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,13 +1341,16 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1324,23 +1364,23 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1421,18 +1467,18 @@
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-8700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>-7800</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,35 +1853,35 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E41" s="3">
         <v>89000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>101100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>61000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,35 +2336,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E46" s="3">
         <v>92400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>114300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>124600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>56700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,35 +2486,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2686,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2595,8 +2715,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E54" s="3">
         <v>92800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>114800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,35 +2976,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>10800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>15300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>15400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,14 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>118200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>235100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-144000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-128600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E76" s="3">
         <v>77400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-70800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-178800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3860,8 +4059,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,13 +4393,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4199,17 +4420,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,8 +4541,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4349,8 +4579,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,8 +4811,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4580,31 +4826,31 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>87000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,44 +4861,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-68400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>65700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>77800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-74300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>77700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,8 +738,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +920,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
         <v>6800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1201,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,38 +1213,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,38 +1287,38 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1328,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,38 +1340,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,16 +1381,19 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1367,23 +1407,23 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1487,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1470,18 +1516,18 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-8700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>-7800</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,38 +1923,38 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E41" s="3">
         <v>77600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E46" s="3">
         <v>80100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>124600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2718,8 +2838,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E54" s="3">
         <v>80400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>102800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>114800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,38 +3166,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3138,29 +3284,29 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
       </c>
       <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,14 +3691,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>118200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>235100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-153700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-144000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-128600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E76" s="3">
         <v>69100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>124200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-70800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-178800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4062,8 +4261,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,16 +4614,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4423,17 +4644,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4582,8 +4812,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,8 +5057,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4829,31 +5075,31 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>87000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4864,47 +5110,50 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-68400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>65700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>77800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-74300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>77700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,8 +742,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,50 +934,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1177,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,8 +1231,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,41 +1243,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,41 +1321,41 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,8 +1365,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,41 +1377,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1410,23 +1450,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>8700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1437,50 +1477,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,8 +1533,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1519,18 +1565,18 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>-8700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>-7800</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,50 +1645,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,50 +1701,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,41 +1993,41 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,50 +2037,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,50 +2149,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2205,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E41" s="3">
         <v>69800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>130100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,8 +2422,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E46" s="3">
         <v>71300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>80100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>114300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>124600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>133000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2841,8 +2961,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E54" s="3">
         <v>71500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>80400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>102800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>114800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,8 +3418,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3287,29 +3433,29 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,14 +3862,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>118200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>235100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-163900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-153700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-144000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-128600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-99900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-90500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E76" s="3">
         <v>61000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>124200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-70800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-178800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4280,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,50 +4341,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4264,8 +4463,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4755,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4626,8 +4847,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4647,17 +4868,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4815,8 +5045,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,13 +5303,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5078,31 +5324,31 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>87000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5113,50 +5359,53 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-68400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>65700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>25000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5166,50 +5415,53 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>77700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,8 +745,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,53 +947,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>9400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1260,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,44 +1272,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,44 +1354,44 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,8 +1401,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,44 +1413,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,13 +1460,16 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1438,8 +1477,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1453,23 +1492,23 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>8700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1480,53 +1519,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1568,18 +1613,18 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>-8700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
         <v>-7800</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1592,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,44 +2062,44 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E41" s="3">
         <v>61400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>77600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>112900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,8 +2514,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,44 +2632,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E46" s="3">
         <v>62200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>114300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>124600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>133000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,44 +2809,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3045,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2964,8 +3083,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E54" s="3">
         <v>62500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>80400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>102800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>114800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,44 +3386,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>6500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,8 +3563,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3436,29 +3581,29 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3865,14 +4032,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>118200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>235100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-163900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-153700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-144000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-128600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-90500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E76" s="3">
         <v>53400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>113400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-70800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-178800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4466,8 +4664,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5055,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4850,8 +5070,8 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4871,17 +5091,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4892,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5230,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5048,8 +5277,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5060,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,17 +5548,20 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5327,31 +5572,31 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>87000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5362,53 +5607,56 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-68400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>65700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>25000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5666,11 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5427,44 +5678,44 @@
         <v>-8400</v>
       </c>
       <c r="E102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-74300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>77700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,99 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,8 +815,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +880,14 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +945,14 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,67 +974,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4900</v>
       </c>
       <c r="N12" s="3">
         <v>8000</v>
       </c>
       <c r="O12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1100,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1165,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1230,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,67 +1256,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,58 +1332,64 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1411,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1354,49 +1422,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>10400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>15900</v>
       </c>
       <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="S20" s="3">
+        <v>900</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,8 +1472,14 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1413,78 +1487,84 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-10200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-15400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-16400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1495,26 +1575,26 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1522,67 +1602,79 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-16400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1616,21 +1708,21 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
         <v>-8700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1640,8 +1732,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1797,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-15400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-16400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-16400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1992,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +2057,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2122,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2187,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2062,49 +2202,49 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-10400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-15900</v>
       </c>
       <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-900</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,67 +2252,79 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-15400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-16400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2382,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-15400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-16400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2546,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2571,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F41" s="3">
         <v>53100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>61400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>69800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>77600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>89000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>101100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>112900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>122500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>130100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>52300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>61000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2632,14 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,8 +2697,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2576,8 +2762,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2827,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2892,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F46" s="3">
         <v>56600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>62200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>71300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>80100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>92400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>102400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>114300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>124600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>133000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>56700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>61900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2957,14 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,8 +3022,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2830,32 +3046,32 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +3087,14 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3152,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3217,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,8 +3282,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3086,11 +3326,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3107,8 +3347,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3412,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F54" s="3">
         <v>56800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>62500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>71500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>80400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>92800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>102800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>114800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>125100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>133600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>57300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>62200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3477,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3506,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3531,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3592,14 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,50 +3657,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3722,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3787,14 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,8 +3852,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3584,32 +3876,32 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3917,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3982,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +4047,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +4112,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4177,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4206,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4267,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,13 +4332,19 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>68800</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4035,17 +4371,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>118200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>235100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4397,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4462,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-287300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-189100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-181100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-173400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-163900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-153700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-144000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-128600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-116300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-99900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-90500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-77500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4527,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4592,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4657,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4722,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>61000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>69100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>77400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>89000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>113400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>124200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-70800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-178800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4787,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4852,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-15400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-16400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +5016,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4667,11 +5065,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +5077,14 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +5142,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5207,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5272,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5337,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5402,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-11500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-13200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-14700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-9200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-8200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5496,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5073,11 +5515,11 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5094,20 +5536,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5557,14 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5622,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,8 +5687,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5280,11 +5740,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5752,14 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5781,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5842,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5907,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5972,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,23 +6037,29 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5575,34 +6067,34 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>87000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>56400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5610,122 +6102,140 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-68400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>65700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>25000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-12100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-11700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>77800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-74300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>61000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>77700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>24400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,8 +757,11 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,8 +825,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,62 +989,63 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>82800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,62 +1284,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>98500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1350,11 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,53 +1362,53 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,53 +1456,53 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,8 +1512,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1487,53 +1524,53 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,8 +1597,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1566,8 +1606,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1581,23 +1621,23 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>7800</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1608,62 +1648,65 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-98300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,31 +1716,34 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1714,18 +1760,18 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
         <v>-7800</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,62 +1852,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-98300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,62 +1920,65 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-98300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2202,53 +2272,53 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,62 +2328,65 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-98300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,62 +2464,65 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-98300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,67 +2532,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2523,8 +2605,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,53 +2659,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E41" s="3">
         <v>39100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>89000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,8 +2793,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,53 +2929,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,53 +2997,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E46" s="3">
         <v>40500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>56600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>114300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>124600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>133000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,53 +3133,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3332,8 +3452,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,53 +3541,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E54" s="3">
         <v>40700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>80400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,53 +3663,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3663,53 +3797,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,53 +3865,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,8 +3933,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3858,8 +4001,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3882,29 +4028,29 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
       <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,53 +4273,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,17 +4503,20 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="3">
         <v>68800</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -4377,14 +4545,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>118200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>235100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,53 +4639,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-291400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-287300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-189100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-181100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-173400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-163900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-153700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-144000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-128600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-90500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-77500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,53 +4911,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-35800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>124200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-70800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-178800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,67 +5047,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4928,62 +5120,65 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-98300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5071,8 +5270,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,62 +5622,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +5690,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5521,8 +5742,8 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5542,17 +5763,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,8 +5920,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5746,8 +5976,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,26 +6286,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6073,31 +6319,31 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>87000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6108,62 +6354,65 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-68400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>65700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>25000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6173,62 +6422,65 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-8400</v>
       </c>
       <c r="G102" s="3">
         <v>-8400</v>
       </c>
       <c r="H102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-74300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>61000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>77700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6236,6 +6488,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +909,14 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +983,14 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1015,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>82800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>4900</v>
       </c>
       <c r="Q12" s="3">
         <v>8000</v>
       </c>
       <c r="R12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T12" s="3">
         <v>3700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1159,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1233,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1307,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,76 +1336,84 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>98500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1362,67 +1421,73 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-98500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-10200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-14500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-12700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-8700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1512,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,55 +1526,55 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>10400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>15900</v>
       </c>
       <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="V20" s="3">
+        <v>900</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,8 +1582,14 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1524,67 +1597,73 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-98300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-9400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-13100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,20 +1679,20 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1624,26 +1703,26 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>8700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
         <v>7800</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1651,76 +1730,88 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-98300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1745,11 +1836,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1763,21 +1854,21 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
         <v>-8700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
         <v>-7800</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1787,8 +1878,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1952,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-98300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-16400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-98300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2174,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2248,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2322,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2396,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2275,55 +2414,55 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-10400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-15900</v>
       </c>
       <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-900</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,76 +2470,88 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-98300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2618,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-98300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2803,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2831,61 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F41" s="3">
         <v>33100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>39100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>53100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>61400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>69800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>77600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>89000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>101100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>112900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>122500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>130100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>52300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>61000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,8 +2901,14 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,8 +2975,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2864,8 +3049,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,59 +3123,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
         <v>1400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,59 +3197,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F46" s="3">
         <v>33500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>40500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>50000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>56600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>62200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>71300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>80100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>92400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>102400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>114300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>124600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>133000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>56700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>61900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,8 +3271,14 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,19 +3345,25 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3163,32 +3378,32 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,8 +3419,14 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3493,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3567,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,13 +3641,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3455,11 +3694,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3476,8 +3715,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3789,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F54" s="3">
         <v>33600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>40700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>50300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>56800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>71500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>80400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>92800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>102800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>114800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>125100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>133600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>57300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>62200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3863,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3895,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3923,61 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,8 +3993,14 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,59 +4067,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>9100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,59 +4141,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4215,14 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4004,13 +4289,19 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4031,32 +4322,32 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4363,14 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4437,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4511,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4585,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4659,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4691,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4761,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,23 +4835,29 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F70" s="3">
         <v>3000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>68800</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4548,17 +4883,17 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>118200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>235100</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4909,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4983,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-298200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-291400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-287300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-189100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-181100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-173400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-163900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-153700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-144000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-128600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-116300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-99900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-90500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-77500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +5057,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +5131,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5205,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5279,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F76" s="3">
         <v>26600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-35800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>43600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>53400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>61000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>69100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>77400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>89000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>113400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>124200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-178800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5353,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5427,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-98300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5612,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5273,11 +5670,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5285,8 +5682,14 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5756,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5830,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5904,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5978,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +6052,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-13200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-11400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-14700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-8200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,37 +6158,39 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5766,20 +6207,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -5787,8 +6228,14 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6302,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,8 +6376,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5979,11 +6438,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -5991,8 +6450,14 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6482,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6552,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6626,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6700,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,32 +6774,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6322,34 +6813,34 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>87000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>56400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6357,140 +6848,158 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>-400</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>65700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>25000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-11700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>77800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>61000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>77700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>24400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,31 +768,34 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -841,8 +845,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,8 +922,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,71 +1030,72 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>82800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7500</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,71 +1364,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8700</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,71 +1439,74 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-98500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1516,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,71 +1547,72 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,71 +1622,74 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-98300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,8 +1699,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1685,8 +1725,8 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1694,8 +1734,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1709,23 +1749,23 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>8700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
         <v>7800</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1736,71 +1776,74 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-98300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1853,11 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1842,8 +1888,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1860,18 +1906,18 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
         <v>-8700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3">
         <v>-7800</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1884,8 +1930,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,71 +2007,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-98300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7700</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2032,71 +2084,74 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-98300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2106,8 +2161,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,71 +2469,74 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,71 +2546,74 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-98300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2623,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,71 +2700,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-98300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,76 +2777,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2859,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,62 +2919,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E41" s="3">
         <v>31000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>61400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>122500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>61000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +2994,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,8 +3071,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3055,8 +3148,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,8 +3225,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3138,53 +3237,53 @@
         <v>1000</v>
       </c>
       <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,62 +3302,65 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E46" s="3">
         <v>32000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>56600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>71300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>92400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>102400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>114300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>124600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>133000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,8 +3379,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,8 +3456,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3363,50 +3471,50 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
       <c r="Q48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
       </c>
       <c r="S48" s="3">
+        <v>600</v>
+      </c>
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,8 +3533,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,16 +3764,19 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3700,8 +3820,8 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3721,8 +3841,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,62 +3918,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E54" s="3">
         <v>32000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>80400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>125100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3995,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,62 +4055,63 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4130,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4073,62 +4207,65 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,62 +4284,65 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4361,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4295,16 +4438,19 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4328,29 +4474,29 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
       </c>
       <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4515,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,62 +4746,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4823,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4853,14 +5021,14 @@
         <v>1300</v>
       </c>
       <c r="F70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G70" s="3">
         <v>3000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>68800</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4889,14 +5057,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>118200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>235100</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,62 +5160,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-301400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-298200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-293800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-291400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-287300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-189100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-181100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-173400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-163900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-153700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-144000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-128600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-116300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-99900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-90500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-77500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5237,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,62 +5468,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-35800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>113400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>124200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-70800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-178800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5545,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,76 +5622,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5512,71 +5704,74 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-98300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5586,8 +5781,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,8 +5812,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5676,8 +5875,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5688,8 +5887,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,71 +6272,74 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6132,8 +6349,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,8 +6380,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6186,14 +6407,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6213,17 +6434,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
@@ -6234,8 +6455,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,8 +6609,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6444,8 +6674,8 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
@@ -6456,8 +6686,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,35 +7023,38 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6819,31 +7065,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>87000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>56400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
@@ -6854,71 +7100,74 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-100</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-68400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>65700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>25000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6928,71 +7177,74 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-8400</v>
       </c>
       <c r="J102" s="3">
         <v>-8400</v>
       </c>
       <c r="K102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L102" s="3">
         <v>-7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>77800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-74300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>61000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>77700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>24400</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7000,6 +7252,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
   <si>
     <t>APRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -771,17 +772,20 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -848,8 +852,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,8 +932,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1012,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,74 +1044,75 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7500</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,74 +1391,75 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,17 +1469,20 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,48 +1498,48 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1519,8 +1549,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,17 +1581,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1574,48 +1608,48 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1625,17 +1659,20 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,48 +1688,48 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-9400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-13100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6200</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-3500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1739,11 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1728,8 +1768,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1737,8 +1777,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1752,23 +1792,23 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>8700</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
         <v>7800</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1779,74 +1819,77 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-98300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1856,8 +1899,11 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1891,8 +1937,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1909,18 +1955,18 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
         <v>-8700</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3">
         <v>-7800</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1933,8 +1979,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,74 +2059,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-98300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7700</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,74 +2139,77 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-98300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7700</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,8 +2219,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,17 +2539,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2498,48 +2568,48 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,74 +2619,77 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-98300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7700</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2626,8 +2699,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,74 +2779,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-98300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7700</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,79 +2859,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2944,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,65 +3006,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>122500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2997,8 +3084,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,8 +3164,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3151,8 +3244,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3228,65 +3324,68 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
       </c>
       <c r="F45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3305,65 +3404,68 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E46" s="3">
         <v>28600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>92400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>102400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>114300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>124600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>133000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>56700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>61900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3484,11 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,13 +3564,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3474,50 +3582,50 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
       </c>
       <c r="R48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
       </c>
       <c r="T48" s="3">
+        <v>600</v>
+      </c>
+      <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3536,8 +3644,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,19 +3884,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3823,8 +3943,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
@@ -3844,8 +3964,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,65 +4044,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E54" s="3">
         <v>28700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>50300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>80400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>125100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4124,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,65 +4186,66 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4133,8 +4264,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4210,65 +4344,68 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4287,65 +4424,68 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4504,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4441,8 +4584,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4452,8 +4598,8 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4477,29 +4623,29 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4518,8 +4664,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,65 +4904,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +4984,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5024,14 +5192,14 @@
         <v>1300</v>
       </c>
       <c r="G70" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H70" s="3">
         <v>3000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>68800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -5060,14 +5228,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>118200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>235100</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,65 +5334,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-301400</v>
+        <v>-315300</v>
       </c>
       <c r="E72" s="3">
-        <v>-298200</v>
+        <v>-312100</v>
       </c>
       <c r="F72" s="3">
-        <v>-293800</v>
+        <v>-308700</v>
       </c>
       <c r="G72" s="3">
-        <v>-291400</v>
+        <v>-304400</v>
       </c>
       <c r="H72" s="3">
-        <v>-287300</v>
+        <v>-301600</v>
       </c>
       <c r="I72" s="3">
-        <v>-189100</v>
+        <v>-297600</v>
       </c>
       <c r="J72" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-181100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-173400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-163900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-153700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-144000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-128600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-116300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-90500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-77500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5240,8 +5414,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,65 +5654,68 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E76" s="3">
         <v>23400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-35800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>113400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>124200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-70800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-178800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5548,8 +5734,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,79 +5814,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5707,74 +5899,77 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-98300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7700</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5784,8 +5979,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,8 +6011,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5878,8 +6077,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5890,8 +6089,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,74 +6489,77 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6352,8 +6569,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,13 +6601,14 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6410,14 +6631,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6437,17 +6658,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
@@ -6458,8 +6679,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,8 +6839,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6677,8 +6907,8 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
@@ -6689,8 +6919,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,8 +7269,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7035,29 +7281,29 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7068,31 +7314,31 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>87000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>56400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
@@ -7103,74 +7349,77 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-68400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>65700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>25000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7180,74 +7429,77 @@
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-8400</v>
       </c>
       <c r="K102" s="3">
         <v>-8400</v>
       </c>
       <c r="L102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="M102" s="3">
         <v>-7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>77800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-74300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>61000</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>77700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>24400</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7255,6 +7507,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
